--- a/Attacker_Data/attacker_reports_20251021.xlsx
+++ b/Attacker_Data/attacker_reports_20251021.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L20"/>
+  <dimension ref="A1:L43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -479,137 +479,710 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>server2_1761059080.txt</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
+          <t>server1_1761090204.txt</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>10.172.95.111</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>10.173.150.42</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>10.173.150.42</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>server1</t>
+        </is>
+      </c>
       <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>10.173.150.42
+2025-10-21 19:44:53.883
+2025-10-21 19:45:43.249
+3
+ls
+cd Grant_Propsals
+exit</t>
+        </is>
+      </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>server2_1761059186.txt</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
+          <t>server1_1761090351.txt</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>10.172.95.111</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>10.173.150.42</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>10.173.150.42</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>server1</t>
+        </is>
+      </c>
       <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>2025-10-21 19:47:00.772
+2025-10-21 19:48:00.816
+2
+ls
+cd Applications</t>
+        </is>
+      </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>server2_1761059663.txt</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
+          <t>server1_1761090870.txt</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>10.172.95.111</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2025-10-21 19:55:39.953</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>2025-10-21 19:56:39.995</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>server1</t>
+        </is>
+      </c>
       <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>server2_1761059792.txt</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
+          <t>server1_1761091116.txt</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>10.172.95.111</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2025-10-21 19:59:20.980</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>2025-10-21 20:00:21.019</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>server1</t>
+        </is>
+      </c>
       <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>server2_1761060034.txt</t>
+          <t>server1_1761091541.txt</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>10.173.150.42</t>
+          <t>10.172.95.111</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2025-10-21 11:21:22.607</t>
+          <t>2025-10-21 20:06:55.809</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2025-10-21 11:22:22.643</t>
+          <t>2025-10-21 20:07:55.853</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>server2</t>
+          <t>server1</t>
         </is>
       </c>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr">
         <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>echo janae inside 137
+ls
+cd Applications
+ls
+cat Study_Abroad_Forms
+ls</t>
+        </is>
+      </c>
+      <c r="J8" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>server1_1761092207.txt</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>10.172.95.111</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2025-10-21 20:17:57.836</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>2025-10-21 20:21:57.892</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>server1</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>4</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>server1_1761092525.txt</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>2025-10-21 20:24:57.879</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>server1</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>1224</v>
+      </c>
+      <c r="K10" t="n">
+        <v>57</v>
+      </c>
+      <c r="L10" t="n">
+        <v>73497</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>server1_1761093449.txt</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>10.172.95.111</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2025-10-21 20:38:15.255</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>2025-10-21 20:45:15.296</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>server1</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>ls
+echo hi im root
+echo i shouldnt be in her</t>
+        </is>
+      </c>
+      <c r="J11" t="n">
+        <v>7</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>server1_1761096525.txt</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>10.173.150.42</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2025-10-21 21:30:02.412</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>2025-10-21 21:31:05.030</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>server1</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>echo hi
+ls
+exit</t>
+        </is>
+      </c>
+      <c r="J12" t="n">
+        <v>1</v>
+      </c>
+      <c r="K12" t="n">
+        <v>3</v>
+      </c>
+      <c r="L12" t="n">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>server1_1761096672.txt</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>10.173.150.42</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2025-10-21 21:32:03.117</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>2025-10-21 21:33:44.607</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>server1</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr">
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>echo hi
+ls
+eit
+exit</t>
+        </is>
+      </c>
+      <c r="J13" t="n">
+        <v>1</v>
+      </c>
+      <c r="K13" t="n">
+        <v>41</v>
+      </c>
+      <c r="L13" t="n">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>server1_1761096829.txt</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>10.173.150.42</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2025-10-21 21:34:42.433</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>2025-10-21 21:36:52.076</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>server1</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>echo hi
+ls
+date
+exit</t>
+        </is>
+      </c>
+      <c r="J14" t="n">
+        <v>2</v>
+      </c>
+      <c r="K14" t="n">
+        <v>10</v>
+      </c>
+      <c r="L14" t="n">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>server2_1761059080.txt</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>server2_1761059186.txt</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>server2_1761059663.txt</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>server2_1761059792.txt</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>server2_1761060034.txt</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>10.173.150.42</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2025-10-21 11:21:22.607</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>2025-10-21 11:22:22.643</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>server2</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
         <is>
           <t>ehco "im timing out"
 echo "im timing out"
@@ -617,54 +1190,54 @@
 date</t>
         </is>
       </c>
-      <c r="J8" t="n">
+      <c r="J19" t="n">
         <v>1</v>
       </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
         <v>60</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>server2_1761060155.txt</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B20" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="C20" t="inlineStr">
         <is>
           <t>10.173.150.42</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="D20" t="inlineStr">
         <is>
           <t>2025-10-21 11:23:05.690</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>2025-10-21 11:23:15.309</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>server2</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr">
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>echo "im leaving"
 ls
@@ -672,54 +1245,54 @@
 exit</t>
         </is>
       </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
         <v>10</v>
       </c>
-      <c r="L9" t="n">
+      <c r="L20" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
+    <row r="21">
+      <c r="A21" t="inlineStr">
         <is>
           <t>server2_1761070852.txt</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B21" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="C21" t="inlineStr">
         <is>
           <t>10.175.90.186</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="D21" t="inlineStr">
         <is>
           <t>10.175.90.186</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>2025-10-21 14:22:04.428</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>server2</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr">
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>2025-10-21 14:23:04.466
 18
@@ -743,286 +1316,559 @@
 echo "silly"</t>
         </is>
       </c>
-      <c r="J10" t="n">
+      <c r="J21" t="n">
         <v>1</v>
       </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
         <v>60</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
+    <row r="22">
+      <c r="A22" t="inlineStr">
         <is>
           <t>server2_1761070992.txt</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B22" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr">
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr">
         <is>
           <t>2025-10-21 14:23:44.490</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>server2</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr">
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="n">
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="n">
         <v>863</v>
       </c>
-      <c r="K11" t="n">
+      <c r="K22" t="n">
         <v>44</v>
       </c>
-      <c r="L11" t="n">
+      <c r="L22" t="n">
         <v>51824</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>server2_1761091541.txt</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>10.173.150.42</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>10.173.150.42</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>2025-10-21 20:06:51.495</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>server2</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>2025-10-21 20:07:25.178
+4
+echo hi
+ls
+cd Applications
+exit</t>
+        </is>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>34</v>
+      </c>
+      <c r="L23" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>server2_1761091650.txt</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>10.173.150.42</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>10.173.150.42</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>2025-10-21 20:08:53.189</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>server2</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>2025-10-21 20:09:53.250
+1</t>
+        </is>
+      </c>
+      <c r="J24" t="n">
+        <v>1</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>server2_1761096525.txt</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>10.173.150.42</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2025-10-21 21:29:50.410</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>2025-10-21 21:31:01.895</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>server2</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>echo hi
+ls
+exit</t>
+        </is>
+      </c>
+      <c r="J25" t="n">
+        <v>1</v>
+      </c>
+      <c r="K25" t="n">
+        <v>11</v>
+      </c>
+      <c r="L25" t="n">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>server2_1761096669.txt</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>10.173.150.42</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2025-10-21 21:31:56.691</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>2025-10-21 21:33:37.703</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>server2</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>echo hi
+exit</t>
+        </is>
+      </c>
+      <c r="J26" t="n">
+        <v>1</v>
+      </c>
+      <c r="K26" t="n">
+        <v>41</v>
+      </c>
+      <c r="L26" t="n">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>server2_1761096822.txt</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>10.173.150.42</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>10.173.150.42</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>2025-10-21 21:34:37.023</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>server2</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>2025-10-21 21:36:48.883
+3
+whoami
+who
+exit</t>
+        </is>
+      </c>
+      <c r="J27" t="n">
+        <v>2</v>
+      </c>
+      <c r="K27" t="n">
+        <v>11</v>
+      </c>
+      <c r="L27" t="n">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
         <is>
           <t>server3_1761068929.txt</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B28" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="C28" t="inlineStr">
         <is>
           <t>10.175.167.143</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="D28" t="inlineStr">
         <is>
           <t>2025-10-21 13:53:57.373</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>2025-10-21 13:54:37.419</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>server3</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr">
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="n">
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
         <v>40</v>
       </c>
-      <c r="L12" t="n">
+      <c r="L28" t="n">
         <v>40</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
+    <row r="29">
+      <c r="A29" t="inlineStr">
         <is>
           <t>server3_1761069282.txt</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B29" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="C29" t="inlineStr">
         <is>
           <t>10.175.167.143</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="D29" t="inlineStr">
         <is>
           <t>2025-10-21 13:56:27.115</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>2025-10-21 13:57:07.164</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>server3</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr">
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="n">
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
         <v>40</v>
       </c>
-      <c r="L13" t="n">
+      <c r="L29" t="n">
         <v>40</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+    <row r="30">
+      <c r="A30" t="inlineStr">
         <is>
           <t>server3_1761069434.txt</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B30" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="C30" t="inlineStr">
         <is>
           <t>10.175.167.143</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="D30" t="inlineStr">
         <is>
           <t>2025-10-21 14:07:45.710</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>2025-10-21 14:08:25.755</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>server3</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr">
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" t="n">
         <v>40</v>
       </c>
-      <c r="L14" t="n">
+      <c r="L30" t="n">
         <v>40</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
+    <row r="31">
+      <c r="A31" t="inlineStr">
         <is>
           <t>server3_1761070835.txt</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B31" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="C31" t="inlineStr">
         <is>
           <t>10.175.167.143</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="D31" t="inlineStr">
         <is>
           <t>2025-10-21 14:22:27.511</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>2025-10-21 14:23:07.559</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>server3</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr">
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="n">
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
         <v>40</v>
       </c>
-      <c r="L15" t="n">
+      <c r="L31" t="n">
         <v>40</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+    <row r="32">
+      <c r="A32" t="inlineStr">
         <is>
           <t>server3_1761071583.txt</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B32" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="C32" t="inlineStr">
         <is>
           <t>10.175.167.143</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="D32" t="inlineStr">
         <is>
           <t>2025-10-21 14:34:05.176</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>2025-10-21 14:35:05.246</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>server3</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr"/>
-      <c r="H16" t="inlineStr">
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="I16" t="inlineStr">
+      <c r="I32" t="inlineStr">
         <is>
           <t>cat hello
 echo hello
@@ -1036,94 +1882,94 @@
 ls</t>
         </is>
       </c>
-      <c r="J16" t="n">
+      <c r="J32" t="n">
         <v>1</v>
       </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" t="n">
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
         <v>60</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
+    <row r="33">
+      <c r="A33" t="inlineStr">
         <is>
           <t>server3_1761071713.txt</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B33" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr">
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr">
         <is>
           <t>2025-10-21 14:35:45.260</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>server3</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="inlineStr">
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="n">
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="n">
         <v>875</v>
       </c>
-      <c r="K17" t="n">
+      <c r="K33" t="n">
         <v>45</v>
       </c>
-      <c r="L17" t="n">
+      <c r="L33" t="n">
         <v>52545</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+    <row r="34">
+      <c r="A34" t="inlineStr">
         <is>
           <t>server3_1761071911.txt</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B34" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="C34" t="inlineStr">
         <is>
           <t>10.175.167.143</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="D34" t="inlineStr">
         <is>
           <t>2025-10-21 14:39:11.267</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>2025-10-21 14:40:11.307</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>server3</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="inlineStr">
+      <c r="G34" t="inlineStr"/>
+      <c r="H34" t="inlineStr">
         <is>
           <t>13</t>
         </is>
       </c>
-      <c r="I18" t="inlineStr">
+      <c r="I34" t="inlineStr">
         <is>
           <t>ls
 cd Transcripts
@@ -1140,110 +1986,483 @@
 ls</t>
         </is>
       </c>
-      <c r="J18" t="n">
+      <c r="J34" t="n">
         <v>1</v>
       </c>
-      <c r="K18" t="n">
-        <v>0</v>
-      </c>
-      <c r="L18" t="n">
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
         <v>60</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
+    <row r="35">
+      <c r="A35" t="inlineStr">
         <is>
           <t>server3_1761072233.txt</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B35" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="C35" t="inlineStr">
         <is>
           <t>10.175.167.143</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="D35" t="inlineStr">
         <is>
           <t>2025-10-21 14:45:12.148</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>2025-10-21 14:46:12.190</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>server3</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr"/>
-      <c r="H19" t="inlineStr">
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="n">
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="n">
         <v>1</v>
       </c>
-      <c r="K19" t="n">
-        <v>0</v>
-      </c>
-      <c r="L19" t="n">
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
         <v>60</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
+    <row r="36">
+      <c r="A36" t="inlineStr">
         <is>
           <t>server3_1761072380.txt</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B36" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="C36" t="inlineStr">
         <is>
           <t>10.175.167.143</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="D36" t="inlineStr">
         <is>
           <t>2025-10-21 14:49:16.453</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>2025-10-21 14:50:16.493</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>server3</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr"/>
-      <c r="H20" t="inlineStr">
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="n">
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="n">
         <v>1</v>
       </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
+      <c r="K36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" t="n">
         <v>60</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>server3_1761091541.txt</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>10.173.150.42</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2025-10-21 20:08:05.099</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>2025-10-21 20:09:05.147</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>server3</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr"/>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>echo "im in the registrar"
+ls</t>
+        </is>
+      </c>
+      <c r="J37" t="n">
+        <v>1</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>server3_1761096525.txt</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>10.172.95.111</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2025-10-21 21:30:17.764</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>2025-10-21 21:31:06.552</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>server3</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr"/>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>exit</t>
+        </is>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>49</v>
+      </c>
+      <c r="L38" t="n">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>server3_1761096671.txt</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>10.172.95.111</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2025-10-21 21:31:44.850</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>2025-10-21 21:32:58.884</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>server3</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr"/>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>exit</t>
+        </is>
+      </c>
+      <c r="J39" t="n">
+        <v>1</v>
+      </c>
+      <c r="K39" t="n">
+        <v>14</v>
+      </c>
+      <c r="L39" t="n">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>server3_1761096786.txt</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>10.172.95.111</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2025-10-21 21:34:52.650</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>2025-10-21 21:35:59.766</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>server3</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr"/>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>echo hello this is janae testing
+ls
+cd Research_Data
+exit</t>
+        </is>
+      </c>
+      <c r="J40" t="n">
+        <v>1</v>
+      </c>
+      <c r="K40" t="n">
+        <v>7</v>
+      </c>
+      <c r="L40" t="n">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>server4_1761096525.txt</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>10.172.95.111</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2025-10-21 21:30:45.671</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>2025-10-21 21:31:03.125</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>server4</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr"/>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>exit</t>
+        </is>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>18</v>
+      </c>
+      <c r="L41" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>server4_1761096671.txt</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>10.172.95.111</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2025-10-21 21:31:53.319</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>2025-10-21 21:32:46.443</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>server4</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr"/>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>exit</t>
+        </is>
+      </c>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
+      <c r="K42" t="n">
+        <v>53</v>
+      </c>
+      <c r="L42" t="n">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>server4_1761096774.txt</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>10.172.95.111</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2025-10-21 21:35:17.119</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>2025-10-21 21:35:56.488</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>server4</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr"/>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>echo janae testing againnnnnnn
+ls
+cs Staff_Infromation
+cd Staff_Infromation
+cd Staff_Information
+exit</t>
+        </is>
+      </c>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="n">
+        <v>39</v>
+      </c>
+      <c r="L43" t="n">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
